--- a/PEMWEB/Absensi/absensi.xlsx
+++ b/PEMWEB/Absensi/absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Absensi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0637EFF-B6C1-4692-8ADC-F85C679C678A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4910775-7A9C-449A-8B88-4DFB713171B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,15 +186,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,38 +491,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -579,12 +579,12 @@
       <c r="C4" s="2">
         <v>20081010222</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -606,12 +606,12 @@
       <c r="C5" s="2">
         <v>20081010033</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -633,12 +633,12 @@
       <c r="C6" s="2">
         <v>20081010012</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -660,12 +660,12 @@
       <c r="C7" s="2">
         <v>20081010108</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -687,12 +687,12 @@
       <c r="C8" s="2">
         <v>20081010124</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -714,12 +714,12 @@
       <c r="C9" s="2">
         <v>20081010099</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -741,12 +741,12 @@
       <c r="C10" s="2">
         <v>20081010118</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -768,12 +768,12 @@
       <c r="C11" s="2">
         <v>20081010078</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -795,12 +795,12 @@
       <c r="C12" s="2">
         <v>20081010060</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -822,12 +822,12 @@
       <c r="C13" s="2">
         <v>20081010094</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -849,12 +849,12 @@
       <c r="C14" s="2">
         <v>20081010122</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -876,12 +876,12 @@
       <c r="C15" s="2">
         <v>20081010245</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -903,12 +903,12 @@
       <c r="C16" s="2">
         <v>20081010023</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -930,12 +930,12 @@
       <c r="C17" s="2">
         <v>20081010111</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -957,12 +957,12 @@
       <c r="C18" s="2">
         <v>20081010123</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -984,12 +984,12 @@
       <c r="C19" s="2">
         <v>20081010061</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1011,12 +1011,12 @@
       <c r="C20" s="2">
         <v>20081010153</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1038,12 +1038,12 @@
       <c r="C21" s="2">
         <v>20081010101</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1065,12 +1065,12 @@
       <c r="C22" s="2">
         <v>20081010107</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1092,12 +1092,12 @@
       <c r="C23" s="2">
         <v>20081010103</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1119,12 +1119,12 @@
       <c r="C24" s="2">
         <v>20081010089</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1146,12 +1146,12 @@
       <c r="C25" s="2">
         <v>20081010113</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1173,12 +1173,12 @@
       <c r="C26" s="2">
         <v>20081010045</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1200,12 +1200,12 @@
       <c r="C27" s="2">
         <v>20081010126</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1227,12 +1227,12 @@
       <c r="C28" s="2">
         <v>20081010043</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1254,12 +1254,12 @@
       <c r="C29" s="2">
         <v>20081010082</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1281,12 +1281,12 @@
       <c r="C30" s="2">
         <v>20081010076</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1308,12 +1308,12 @@
       <c r="C31" s="2">
         <v>20081010026</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1339,8 +1339,8 @@
         <v>10</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>

--- a/PEMWEB/Absensi/absensi.xlsx
+++ b/PEMWEB/Absensi/absensi.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Absensi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4910775-7A9C-449A-8B88-4DFB713171B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9720889-552F-4CA7-B292-E688D17EB1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="voting" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>NO</t>
   </si>
@@ -139,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +150,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,11 +197,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -491,38 +502,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -1368,4 +1379,898 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFB2FF7-06F8-4ACC-9C04-AED390E7F1FE}">
+  <dimension ref="B2:T32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="3.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="37.7265625" customWidth="1"/>
+    <col min="5" max="20" width="4.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6">
+        <v>7</v>
+      </c>
+      <c r="L3" s="6">
+        <v>8</v>
+      </c>
+      <c r="M3" s="6">
+        <v>9</v>
+      </c>
+      <c r="N3" s="6">
+        <v>10</v>
+      </c>
+      <c r="O3" s="6">
+        <v>11</v>
+      </c>
+      <c r="P3" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>13</v>
+      </c>
+      <c r="R3" s="6">
+        <v>14</v>
+      </c>
+      <c r="S3" s="6">
+        <v>15</v>
+      </c>
+      <c r="T3" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20081010222</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20081010033</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20081010012</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20081010108</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20081010124</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20081010099</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20081010118</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20081010078</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20081010060</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20081010094</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20081010122</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20081010245</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20081010023</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20081010111</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20081010123</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20081010061</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20081010153</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20081010101</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20081010107</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20081010103</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20081010089</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <v>20081010113</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20081010045</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20081010126</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20081010043</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20081010082</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
+        <v>20081010076</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2">
+        <v>20081010026</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20081010109</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PEMWEB/Absensi/absensi.xlsx
+++ b/PEMWEB/Absensi/absensi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPN\Semester\semester4\PEMWEB\Absensi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9720889-552F-4CA7-B292-E688D17EB1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A750054A-2B46-46ED-8190-B826D4237BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,7 +596,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -623,7 +623,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -650,7 +650,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -677,7 +677,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -704,7 +704,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -731,7 +731,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -758,7 +758,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -785,7 +785,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -812,7 +812,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -839,7 +839,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -866,7 +866,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -891,9 +891,9 @@
         <v>23</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -920,7 +920,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -947,7 +947,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -974,7 +974,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1001,7 +1001,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1028,7 +1028,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1055,7 +1055,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1082,7 +1082,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1109,7 +1109,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1136,7 +1136,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1163,7 +1163,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1190,7 +1190,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1217,7 +1217,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1244,7 +1244,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1271,7 +1271,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1298,7 +1298,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1325,7 +1325,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1352,7 +1352,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1385,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFB2FF7-06F8-4ACC-9C04-AED390E7F1FE}">
   <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1493,7 +1493,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1520,7 +1520,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1547,7 +1547,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1574,7 +1574,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1601,7 +1601,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1628,7 +1628,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1655,7 +1655,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1682,7 +1682,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1709,7 +1709,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1736,7 +1736,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1763,7 +1763,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1790,7 +1790,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1817,7 +1817,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1844,7 +1844,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1871,7 +1871,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1898,7 +1898,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1925,7 +1925,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1952,7 +1952,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1979,7 +1979,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2006,7 +2006,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2033,7 +2033,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -2060,7 +2060,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2087,7 +2087,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -2114,7 +2114,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -2141,7 +2141,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -2168,7 +2168,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2195,7 +2195,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -2222,7 +2222,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2249,7 +2249,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
